--- a/docs/requirements/Master Data Tables - Test Data/master-device_type.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-device_type.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="47">
   <si>
     <t>code</t>
   </si>
@@ -97,27 +97,6 @@
   </si>
   <si>
     <t>Pour scanner liris</t>
-  </si>
-  <si>
-    <t>DKS</t>
-  </si>
-  <si>
-    <t>Dekstop</t>
-  </si>
-  <si>
-    <t>Desktop Computer</t>
-  </si>
-  <si>
-    <t>الحاسوب</t>
-  </si>
-  <si>
-    <t>أجهزة الكمبيوتر المكتبية</t>
-  </si>
-  <si>
-    <t>Ordinateur</t>
-  </si>
-  <si>
-    <t>Ordinateurs de bureau</t>
   </si>
   <si>
     <t>CMR</t>
@@ -1021,9 +1000,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1395,76 +1376,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>